--- a/modelo.xlsx
+++ b/modelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f945c30c1683e021/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD54950-6699-4072-BF70-744F8E5A376B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{4DD54950-6699-4072-BF70-744F8E5A376B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7203D7D2-68BC-44C3-B80C-04D74D346FF9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBFC3237-A0C0-0348-8C05-0EE9C08D3201}"/>
+    <workbookView xWindow="1470" yWindow="15" windowWidth="13905" windowHeight="15585" xr2:uid="{DBFC3237-A0C0-0348-8C05-0EE9C08D3201}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -588,6 +588,21 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,50 +612,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,359 +976,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0C69A6-8DA3-8241-AA0E-E72D43C790F2}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:E38"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="11"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="14" t="s">
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="35"/>
       <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="14" t="s">
+      <c r="D3" s="36"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="35"/>
       <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="15"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="14" t="s">
+      <c r="D4" s="36"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="14" t="s">
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="15"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="32" t="s">
+      <c r="B7" s="4"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="15"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="19" t="s">
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="19" t="s">
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="19" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="26" t="s">
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="19" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="19" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="21" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="42" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="15"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="32" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="15"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="31" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>5</v>
       </c>
+      <c r="B27" s="35"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="14" t="s">
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="B28" s="35"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="14" t="s">
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="B29" s="35"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="14" t="s">
+      <c r="D29" s="36"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="B30" s="35"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="14" t="s">
+      <c r="D30" s="36"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="B31" s="35"/>
       <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="27" t="s">
+      <c r="D31" s="36"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
         <v>26</v>
       </c>
+      <c r="B32" s="35"/>
       <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="15"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="32" t="s">
+      <c r="D32" s="36"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="28"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="29" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
         <v>28</v>
       </c>
+      <c r="B36" s="35"/>
       <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="36"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="14" t="s">
+      <c r="D36" s="36"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="B37" s="35"/>
       <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="30" t="s">
+      <c r="D37" s="36"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="A25:D25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
